--- a/training-plan/营销中心读书会计划v1.2.xlsx
+++ b/training-plan/营销中心读书会计划v1.2.xlsx
@@ -489,38 +489,38 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,7 +829,7 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -848,18 +848,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" ht="24.6" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -874,7 +874,7 @@
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>76</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1325,27 +1325,27 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" s="18" customFormat="1">
-      <c r="A24" s="14">
+    <row r="24" spans="1:10" s="17" customFormat="1">
+      <c r="A24" s="13">
         <v>22</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="14">
         <v>6</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="15">
         <v>43063</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5">
@@ -1459,27 +1459,27 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10" s="18" customFormat="1">
-      <c r="A31" s="14">
+    <row r="31" spans="1:10" s="17" customFormat="1">
+      <c r="A31" s="13">
         <v>29</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="14">
         <v>8</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="15">
         <v>43056</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="5">
@@ -1497,49 +1497,49 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:10" s="18" customFormat="1">
-      <c r="A33" s="14">
+    <row r="33" spans="1:10" s="17" customFormat="1">
+      <c r="A33" s="13">
         <v>31</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="14">
         <v>7</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="15">
         <v>43070</v>
       </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-    </row>
-    <row r="34" spans="1:10" s="18" customFormat="1">
-      <c r="A34" s="14">
+      <c r="F33" s="13"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+    </row>
+    <row r="34" spans="1:10" s="17" customFormat="1">
+      <c r="A34" s="13">
         <v>32</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="14">
         <v>5</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="15">
         <v>43049</v>
       </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="5">
@@ -1719,27 +1719,27 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="1:10" s="22" customFormat="1">
-      <c r="A45" s="19">
+    <row r="45" spans="1:10" s="21" customFormat="1">
+      <c r="A45" s="18">
         <v>43</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="19">
         <v>7</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F45" s="19"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="5">

--- a/training-plan/营销中心读书会计划v1.2.xlsx
+++ b/training-plan/营销中心读书会计划v1.2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
   <si>
     <t>备注</t>
   </si>
@@ -324,10 +324,6 @@
   </si>
   <si>
     <t>营销中心读书会计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11月3号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -471,9 +467,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -521,6 +514,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -839,7 +838,7 @@
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -848,18 +847,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" ht="24.6" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -874,7 +873,7 @@
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>76</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -897,18 +896,18 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="6">
+      <c r="F3" s="22">
         <v>42776</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="H3" s="3">
@@ -923,18 +922,18 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="6">
+      <c r="F4" s="22">
         <v>42798</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="3">
@@ -949,18 +948,18 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="6">
+      <c r="F5" s="22">
         <v>42846</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>37</v>
       </c>
       <c r="H5" s="3">
@@ -975,18 +974,18 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="6">
+      <c r="F6" s="22">
         <v>42874</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>28</v>
       </c>
       <c r="H6" s="3">
@@ -999,18 +998,18 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="6">
+      <c r="F7" s="22">
         <v>42909</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>44</v>
       </c>
       <c r="H7" s="3">
@@ -1023,18 +1022,18 @@
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="6">
+      <c r="F8" s="22">
         <v>42923</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>42</v>
       </c>
       <c r="H8" s="3">
@@ -1047,18 +1046,18 @@
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="6">
+      <c r="F9" s="22">
         <v>42944</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>43</v>
       </c>
       <c r="H9" s="3">
@@ -1071,16 +1070,16 @@
       <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>4</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="9"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1089,16 +1088,16 @@
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>2</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="9"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1107,16 +1106,16 @@
       <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>4</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="10"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -1125,18 +1124,18 @@
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>6</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="10"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -1145,16 +1144,16 @@
       <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="10"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -1163,16 +1162,16 @@
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>2</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="10"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -1181,16 +1180,16 @@
       <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>2</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="10"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -1199,16 +1198,16 @@
       <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>4</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="10"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -1217,18 +1216,18 @@
       <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>2</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="10"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="9"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -1237,16 +1236,16 @@
       <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>0</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="10"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="9"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -1255,16 +1254,16 @@
       <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="10"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="9"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -1273,16 +1272,16 @@
       <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>4</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="10"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -1291,18 +1290,18 @@
       <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>2</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>74</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="10"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="9"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -1311,56 +1310,56 @@
       <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>5</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="10"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="9"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" s="17" customFormat="1">
-      <c r="A24" s="13">
+    <row r="24" spans="1:10" s="16" customFormat="1">
+      <c r="A24" s="12">
         <v>22</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="13">
         <v>6</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="14"/>
+      <c r="F24" s="22">
         <v>43063</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>1</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="10"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="9"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -1369,16 +1368,16 @@
       <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>3</v>
       </c>
-      <c r="D26" s="8"/>
+      <c r="D26" s="7"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="10"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="9"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -1387,16 +1386,16 @@
       <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>2</v>
       </c>
-      <c r="D27" s="8"/>
+      <c r="D27" s="7"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="10"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="9"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -1405,16 +1404,16 @@
       <c r="A28" s="5">
         <v>26</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>0</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="10"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="9"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -1423,18 +1422,18 @@
       <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="10">
         <v>8</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="10"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="9"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -1443,118 +1442,118 @@
       <c r="A30" s="5">
         <v>28</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="10">
         <v>8</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="10"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="9"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10" s="17" customFormat="1">
-      <c r="A31" s="13">
+    <row r="31" spans="1:10" s="16" customFormat="1">
+      <c r="A31" s="12">
         <v>29</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="13">
         <v>8</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="14"/>
+      <c r="F31" s="22">
         <v>43056</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="5">
         <v>30</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="10"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="9"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:10" s="17" customFormat="1">
-      <c r="A33" s="13">
+    <row r="33" spans="1:10" s="16" customFormat="1">
+      <c r="A33" s="12">
         <v>31</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="13">
         <v>7</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="14"/>
+      <c r="F33" s="22">
         <v>43070</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-    </row>
-    <row r="34" spans="1:10" s="17" customFormat="1">
-      <c r="A34" s="13">
+      <c r="G33" s="15"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="1:10" s="16" customFormat="1">
+      <c r="A34" s="12">
         <v>32</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="13">
         <v>5</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="14"/>
+      <c r="F34" s="22">
         <v>43049</v>
       </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="5">
         <v>33</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>3</v>
       </c>
-      <c r="D35" s="8"/>
+      <c r="D35" s="7"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="10"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="9"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -1563,14 +1562,14 @@
       <c r="A36" s="5">
         <v>34</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="10"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="9"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -1579,14 +1578,14 @@
       <c r="A37" s="5">
         <v>35</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="10"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="9"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -1595,14 +1594,14 @@
       <c r="A38" s="5">
         <v>36</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="10"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="9"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -1611,16 +1610,16 @@
       <c r="A39" s="5">
         <v>37</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="7">
         <v>3</v>
       </c>
-      <c r="D39" s="8"/>
+      <c r="D39" s="7"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="10"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="9"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
@@ -1629,16 +1628,16 @@
       <c r="A40" s="5">
         <v>38</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="7">
         <v>2</v>
       </c>
-      <c r="D40" s="8"/>
+      <c r="D40" s="7"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="10"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="9"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -1647,16 +1646,16 @@
       <c r="A41" s="5">
         <v>39</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="7">
         <v>3</v>
       </c>
-      <c r="D41" s="8"/>
+      <c r="D41" s="7"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="10"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="9"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
@@ -1665,14 +1664,14 @@
       <c r="A42" s="5">
         <v>40</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="10"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="9"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
@@ -1681,18 +1680,18 @@
       <c r="A43" s="5">
         <v>41</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="10">
         <v>5</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="7" t="s">
         <v>70</v>
       </c>
       <c r="E43" s="3"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="10"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="9"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -1701,56 +1700,54 @@
       <c r="A44" s="5">
         <v>42</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="10">
         <v>7</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E44" s="3">
-        <v>2</v>
-      </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="10"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="9"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="1:10" s="21" customFormat="1">
-      <c r="A45" s="18">
+    <row r="45" spans="1:10" s="20" customFormat="1">
+      <c r="A45" s="17">
         <v>43</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C45" s="18">
         <v>7</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E45" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F45" s="18"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="22">
+        <v>43042</v>
+      </c>
+      <c r="G45" s="19"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="5">
         <v>44</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
       <c r="D46" s="5"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="10"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="9"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
@@ -1759,12 +1756,12 @@
       <c r="A47" s="5">
         <v>45</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
       <c r="D47" s="5"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="10"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="9"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -1777,7 +1774,7 @@
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="5"/>
+      <c r="F48" s="23"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
@@ -1791,7 +1788,7 @@
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="5"/>
+      <c r="F49" s="23"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
@@ -1805,7 +1802,7 @@
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="5"/>
+      <c r="F50" s="23"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
@@ -1819,7 +1816,7 @@
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="5"/>
+      <c r="F51" s="23"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
@@ -1833,7 +1830,7 @@
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="5"/>
+      <c r="F52" s="23"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
@@ -1847,7 +1844,7 @@
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="5"/>
+      <c r="F53" s="23"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
@@ -1861,7 +1858,7 @@
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="5"/>
+      <c r="F54" s="23"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
@@ -1875,7 +1872,7 @@
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="5"/>
+      <c r="F55" s="23"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
@@ -1889,7 +1886,7 @@
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="5"/>
+      <c r="F56" s="23"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
@@ -1903,7 +1900,7 @@
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="5"/>
+      <c r="F57" s="23"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
@@ -1917,7 +1914,7 @@
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="5"/>
+      <c r="F58" s="23"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
@@ -1931,7 +1928,7 @@
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="5"/>
+      <c r="F59" s="23"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
@@ -1945,7 +1942,7 @@
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="5"/>
+      <c r="F60" s="23"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
@@ -1959,7 +1956,7 @@
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="5"/>
+      <c r="F61" s="23"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>

--- a/training-plan/营销中心读书会计划v1.2.xlsx
+++ b/training-plan/营销中心读书会计划v1.2.xlsx
@@ -512,14 +512,14 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -847,18 +847,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" ht="24.6" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -904,7 +904,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="22">
+      <c r="F3" s="21">
         <v>42776</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -930,7 +930,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="22">
+      <c r="F4" s="21">
         <v>42798</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -956,7 +956,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="22">
+      <c r="F5" s="21">
         <v>42846</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -982,7 +982,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <v>42874</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -1006,7 +1006,7 @@
         <v>36</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="22">
+      <c r="F7" s="21">
         <v>42909</v>
       </c>
       <c r="G7" s="8" t="s">
@@ -1030,7 +1030,7 @@
         <v>39</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="22">
+      <c r="F8" s="21">
         <v>42923</v>
       </c>
       <c r="G8" s="8" t="s">
@@ -1054,7 +1054,7 @@
         <v>40</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="22">
+      <c r="F9" s="21">
         <v>42944</v>
       </c>
       <c r="G9" s="8" t="s">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="22"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="8"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="22"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="8"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="9"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -1134,7 +1134,7 @@
         <v>36</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="22"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="9"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="22"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="9"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="22"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="9"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="22"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="9"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="22"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="9"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1226,7 +1226,7 @@
         <v>36</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="22"/>
+      <c r="F18" s="21"/>
       <c r="G18" s="9"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="22"/>
+      <c r="F19" s="21"/>
       <c r="G19" s="9"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="22"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="9"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="22"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="9"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -1300,7 +1300,7 @@
         <v>74</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="22"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="9"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="22"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="9"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -1338,7 +1338,7 @@
         <v>75</v>
       </c>
       <c r="E24" s="14"/>
-      <c r="F24" s="22">
+      <c r="F24" s="21">
         <v>43063</v>
       </c>
       <c r="G24" s="15"/>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="22"/>
+      <c r="F25" s="21"/>
       <c r="G25" s="9"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="22"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="9"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="22"/>
+      <c r="F27" s="21"/>
       <c r="G27" s="9"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="22"/>
+      <c r="F28" s="21"/>
       <c r="G28" s="9"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -1432,7 +1432,7 @@
         <v>73</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="22"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="9"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -1452,7 +1452,7 @@
         <v>73</v>
       </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="22"/>
+      <c r="F30" s="21"/>
       <c r="G30" s="9"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -1472,7 +1472,7 @@
         <v>72</v>
       </c>
       <c r="E31" s="14"/>
-      <c r="F31" s="22">
+      <c r="F31" s="21">
         <v>43056</v>
       </c>
       <c r="G31" s="15"/>
@@ -1490,7 +1490,7 @@
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="22"/>
+      <c r="F32" s="21"/>
       <c r="G32" s="9"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -1510,7 +1510,7 @@
         <v>71</v>
       </c>
       <c r="E33" s="14"/>
-      <c r="F33" s="22">
+      <c r="F33" s="21">
         <v>43070</v>
       </c>
       <c r="G33" s="15"/>
@@ -1532,7 +1532,7 @@
         <v>70</v>
       </c>
       <c r="E34" s="14"/>
-      <c r="F34" s="22">
+      <c r="F34" s="21">
         <v>43049</v>
       </c>
       <c r="G34" s="15"/>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="22"/>
+      <c r="F35" s="21"/>
       <c r="G35" s="9"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -1568,7 +1568,7 @@
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="22"/>
+      <c r="F36" s="21"/>
       <c r="G36" s="9"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -1584,7 +1584,7 @@
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="22"/>
+      <c r="F37" s="21"/>
       <c r="G37" s="9"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -1600,7 +1600,7 @@
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="22"/>
+      <c r="F38" s="21"/>
       <c r="G38" s="9"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="22"/>
+      <c r="F39" s="21"/>
       <c r="G39" s="9"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="22"/>
+      <c r="F40" s="21"/>
       <c r="G40" s="9"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="22"/>
+      <c r="F41" s="21"/>
       <c r="G41" s="9"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -1670,7 +1670,7 @@
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="22"/>
+      <c r="F42" s="21"/>
       <c r="G42" s="9"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -1690,7 +1690,7 @@
         <v>70</v>
       </c>
       <c r="E43" s="3"/>
-      <c r="F43" s="22"/>
+      <c r="F43" s="21"/>
       <c r="G43" s="9"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
@@ -1710,7 +1710,7 @@
         <v>67</v>
       </c>
       <c r="E44" s="3"/>
-      <c r="F44" s="22"/>
+      <c r="F44" s="21"/>
       <c r="G44" s="9"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -1730,7 +1730,7 @@
         <v>69</v>
       </c>
       <c r="E45" s="17"/>
-      <c r="F45" s="22">
+      <c r="F45" s="21">
         <v>43042</v>
       </c>
       <c r="G45" s="19"/>
@@ -1746,7 +1746,7 @@
       <c r="C46" s="7"/>
       <c r="D46" s="5"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="22"/>
+      <c r="F46" s="21"/>
       <c r="G46" s="9"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
@@ -1760,7 +1760,7 @@
       <c r="C47" s="7"/>
       <c r="D47" s="5"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="23"/>
+      <c r="F47" s="22"/>
       <c r="G47" s="9"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
@@ -1774,7 +1774,7 @@
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="23"/>
+      <c r="F48" s="22"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
@@ -1788,7 +1788,7 @@
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="23"/>
+      <c r="F49" s="22"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
@@ -1802,7 +1802,7 @@
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="23"/>
+      <c r="F50" s="22"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
@@ -1816,7 +1816,7 @@
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="23"/>
+      <c r="F51" s="22"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
@@ -1830,7 +1830,7 @@
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="23"/>
+      <c r="F52" s="22"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
@@ -1844,7 +1844,7 @@
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="23"/>
+      <c r="F53" s="22"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
@@ -1858,7 +1858,7 @@
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="23"/>
+      <c r="F54" s="22"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
@@ -1872,7 +1872,7 @@
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="23"/>
+      <c r="F55" s="22"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
@@ -1886,7 +1886,7 @@
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="23"/>
+      <c r="F56" s="22"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
@@ -1900,7 +1900,7 @@
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="23"/>
+      <c r="F57" s="22"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
@@ -1914,7 +1914,7 @@
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="23"/>
+      <c r="F58" s="22"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
@@ -1928,7 +1928,7 @@
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="23"/>
+      <c r="F59" s="22"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
@@ -1942,7 +1942,7 @@
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="23"/>
+      <c r="F60" s="22"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
@@ -1956,7 +1956,7 @@
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="23"/>
+      <c r="F61" s="22"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>

--- a/training-plan/营销中心读书会计划v1.2.xlsx
+++ b/training-plan/营销中心读书会计划v1.2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
   <si>
     <t>备注</t>
   </si>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主流的4种NoSQL数据库介绍（键-值对型 列型 文档型 图型）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Java的加密和解密</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -324,6 +320,14 @@
   </si>
   <si>
     <t>营销中心读书会计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主流的4种NoSQL数据库介绍（键-值对型 列型 文档型 图型）MongoDB，Hbase，redis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -828,7 +832,7 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -848,7 +852,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -868,19 +872,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>7</v>
@@ -897,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
@@ -908,7 +912,7 @@
         <v>42776</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="3">
         <v>2</v>
@@ -934,13 +938,13 @@
         <v>42798</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="3">
         <v>2</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" s="3"/>
     </row>
@@ -960,13 +964,13 @@
         <v>42846</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" s="3">
         <v>2</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5" s="3"/>
     </row>
@@ -975,18 +979,18 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="21">
         <v>42874</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="3">
         <v>2</v>
@@ -999,18 +1003,18 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="21">
         <v>42909</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" s="3">
         <v>2</v>
@@ -1023,18 +1027,18 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="21">
         <v>42923</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" s="3">
         <v>2</v>
@@ -1047,18 +1051,18 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="21">
         <v>42944</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" s="3">
         <v>2</v>
@@ -1071,7 +1075,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="7">
         <v>4</v>
@@ -1107,7 +1111,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="7">
         <v>4</v>
@@ -1125,13 +1129,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="C13" s="10">
         <v>6</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="21"/>
@@ -1145,7 +1149,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1163,14 +1167,18 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="7">
         <v>2</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="21"/>
+      <c r="F15" s="21">
+        <v>43280</v>
+      </c>
       <c r="G15" s="9"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1181,7 +1189,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="7">
         <v>2</v>
@@ -1199,7 +1207,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>4</v>
@@ -1217,13 +1225,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
         <v>2</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="21"/>
@@ -1237,7 +1245,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -1255,7 +1263,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -1273,7 +1281,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="7">
         <v>4</v>
@@ -1291,13 +1299,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="7">
         <v>2</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="21"/>
@@ -1311,7 +1319,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="7">
         <v>5</v>
@@ -1329,13 +1337,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="13">
         <v>6</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="21">
@@ -1351,7 +1359,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -1369,7 +1377,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="7">
         <v>3</v>
@@ -1387,7 +1395,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="7">
         <v>2</v>
@@ -1405,7 +1413,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -1423,13 +1431,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="10">
         <v>8</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="21"/>
@@ -1443,13 +1451,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="10">
         <v>8</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="21"/>
@@ -1463,13 +1471,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="13">
         <v>8</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="21">
@@ -1485,7 +1493,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1501,13 +1509,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="13">
         <v>7</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="21">
@@ -1523,13 +1531,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C34" s="13">
         <v>5</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="21">
@@ -1545,7 +1553,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="7">
         <v>3</v>
@@ -1563,7 +1571,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1579,7 +1587,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1595,7 +1603,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1611,7 +1619,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39" s="7">
         <v>3</v>
@@ -1629,7 +1637,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" s="7">
         <v>2</v>
@@ -1647,7 +1655,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C41" s="7">
         <v>3</v>
@@ -1665,7 +1673,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1681,13 +1689,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" s="10">
         <v>5</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="21"/>
@@ -1701,13 +1709,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C44" s="10">
         <v>7</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="21"/>
@@ -1721,13 +1729,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C45" s="18">
         <v>7</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="21">
@@ -1742,7 +1750,9 @@
       <c r="A46" s="5">
         <v>44</v>
       </c>
-      <c r="B46" s="7"/>
+      <c r="B46" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="C46" s="7"/>
       <c r="D46" s="5"/>
       <c r="E46" s="3"/>
